--- a/tables/Вокзал Хоста.xlsx
+++ b/tables/Вокзал Хоста.xlsx
@@ -700,12 +700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
